--- a/dataset/map_place_lat_long.xlsx
+++ b/dataset/map_place_lat_long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanyue/Github/Python_Trip_Project/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141EB4E0-7C1D-EB44-8004-7910E0CF29C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809F74BF-50B2-6841-99FC-09637ECA1B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{A86ACE1C-2FC2-2841-83B7-1AC840E638B8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>﻿-34.927596</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>O'Connell Inn</t>
+  </si>
+  <si>
+    <t>Adelaide Airport</t>
+  </si>
+  <si>
+    <t>Pullman Adelaide Hotel</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA44425-567C-6B47-9E7A-05CD17E53C01}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,6 +530,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>-34.946120000000001</v>
+      </c>
+      <c r="C8">
+        <v>138.533131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>-34.922956999999997</v>
+      </c>
+      <c r="C9">
+        <v>138.60633000000001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
